--- a/DocumentacionFinal/Test_Case_Evaluation.xlsx
+++ b/DocumentacionFinal/Test_Case_Evaluation.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="2" r:id="rId1"/>
-    <sheet name="TestCase1_Loop1" sheetId="1" r:id="rId2"/>
-    <sheet name="SummaryOfTesting" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCase1_Loop1 " sheetId="5" r:id="rId2"/>
+    <sheet name="TestCase1_Loop2" sheetId="1" r:id="rId3"/>
+    <sheet name="TestCase1_Loop3" sheetId="6" r:id="rId4"/>
+    <sheet name="SummaryOfTesting" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="85">
   <si>
     <t>Test case ID:</t>
   </si>
@@ -216,9 +218,6 @@
   </si>
   <si>
     <t>Sends error message and asks for a nee valid one.</t>
-  </si>
-  <si>
-    <t>Device Under Test (DUT) executes the specified command. There's no acknowledge.</t>
   </si>
   <si>
     <t>The SPARC does not accept commads that go beyond the work area. It sends error message and ask for a new command.</t>
@@ -329,12 +328,80 @@
 Mark- Sends trash.</t>
     </r>
   </si>
+  <si>
+    <t>Data bit
+5-No  comunication. Wrong parameter.
+6-No  comunication. Wrong parameter.
+7-If it's suddenly changed , it starts to send trash. 
+8-Ideal data bit.
+Stop bit
+1-  Works well
+1.5- Breaks comunicación
+2- Works well
+Parity bit
+None-Ideal
+Even- Sends trash. 
+Odd-Sends trash. 
+Space- Sends trash.
+Mark- Sends trash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Under Test (DUT) moves to the corresponding point.  There's no visual acknowledge. </t>
+  </si>
+  <si>
+    <t>Sends error message and asks for a new valid one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Under Test (DUT) executes the specified command. There's  visual no acknowledge(LED). </t>
+  </si>
+  <si>
+    <t>Sends error message and asks for a nee valid one.There's  visual no acknowledge(LED).</t>
+  </si>
+  <si>
+    <t>The SPARC does not accept commads that go beyond the work area. It sends error message and ask for a new command.There's  visual no acknowledge(LED).</t>
+  </si>
+  <si>
+    <t>SPARC generates a touch perfectly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The actuator got stuck at the end of the slide. </t>
+  </si>
+  <si>
+    <t>Sends error message and asks for a new valid one. Corresponding led does not turns on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unit can support power lost without problems. It restarts position every time it starts. Blue LED turns on when the SPARC turns on. </t>
+  </si>
+  <si>
+    <t>Device Under Test (DUT) executes the specified command. The green LED turns on when the system is ready to recevie a new command.</t>
+  </si>
+  <si>
+    <t>Sends error message and asks for a nee valid one. Red LED is turn on.</t>
+  </si>
+  <si>
+    <t>The SPARC does not accept commads that go beyond the work area. It sends error message and ask for a new command.There's  visual  acknowledge(LED).</t>
+  </si>
+  <si>
+    <t>The SPARC does not accept commads that go beyond the work area. It sends error message and ask for a new command.There's  visual acknowledge(LED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The actuator performs the slide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete test, hardware and software. The problems at setting the initial position of the actuator to begging program last. The actuator got stuck when making a slide. Leds are no configurated.  Positioning works well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A complete test was performed and the behavior of the system was the expected. All LED's worked well, when they must. Emergency stop, turn on off button as well. Excellent performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The performance of the system is the desired. Movement is correct and precise. The status update are wel given by the led's. Limits are respected and there is no hardware problem. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,13 +543,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -541,11 +620,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,9 +738,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,9 +747,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,6 +1187,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6019800" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="193174"/>
+          <a:ext cx="6019800" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="5400" b="1" cap="none" spc="50">
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:tint val="1000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="38100">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Summary of testing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1399,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -1415,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A23" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="36" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>1</v>
       </c>
@@ -1512,11 +1662,11 @@
         <v>9</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="126.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="35">
         <v>2</v>
       </c>
@@ -1532,11 +1682,11 @@
       <c r="F9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="108.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>3</v>
       </c>
@@ -1552,11 +1702,11 @@
       <c r="F10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36">
         <v>4</v>
       </c>
@@ -1570,11 +1720,11 @@
         <v>33</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="72.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36">
         <v>5</v>
       </c>
@@ -1586,11 +1736,11 @@
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G12" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
         <v>6</v>
       </c>
@@ -1602,7 +1752,7 @@
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1620,8 +1770,8 @@
         <v>39</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="44" t="s">
-        <v>60</v>
+      <c r="G14" s="43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="72" x14ac:dyDescent="0.25">
@@ -1636,8 +1786,8 @@
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="45" t="s">
-        <v>59</v>
+      <c r="G15" s="44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="36" x14ac:dyDescent="0.25">
@@ -1652,8 +1802,8 @@
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="45" t="s">
-        <v>62</v>
+      <c r="G16" s="44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -1670,7 +1820,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1688,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1704,8 +1854,8 @@
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="45" t="s">
-        <v>61</v>
+      <c r="G19" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="42" x14ac:dyDescent="0.25">
@@ -1720,8 +1870,8 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="45" t="s">
-        <v>61</v>
+      <c r="G20" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="108" x14ac:dyDescent="0.25">
@@ -1738,8 +1888,8 @@
         <v>49</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="45" t="s">
-        <v>63</v>
+      <c r="G21" s="44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:7" thickBot="1" x14ac:dyDescent="0.3">
@@ -1783,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -1833,13 +1983,13 @@
       <c r="B31" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="C31" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
@@ -2385,17 +2535,2018 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="126.5703125" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="36">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="B14" s="36">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="B15" s="36">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="B16" s="36">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B17" s="36">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B18" s="36">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="B19" s="36">
+        <v>12</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="B20" s="36">
+        <v>13</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="108" x14ac:dyDescent="0.25">
+      <c r="B21" s="36">
+        <v>14</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="2:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="30">
+        <v>43807</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="30">
+        <v>43809</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G172"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="126.5703125" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="36">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="B14" s="36">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="B15" s="36">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="B16" s="36">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B17" s="36">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B18" s="36">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="B19" s="36">
+        <v>12</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="B20" s="36">
+        <v>13</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="108" x14ac:dyDescent="0.25">
+      <c r="B21" s="36">
+        <v>14</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="2:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="30">
+        <v>43807</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="30">
+        <v>43809</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b4c971ed-d55e-45d5-823f-e5f0a4d5378a">
+      <UserInfo>
+        <DisplayName>Delgado Trevizo, Julio Alberto</DisplayName>
+        <AccountId>45</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rodriguez, Cesar</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rojas, Luis Emmanuel</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Martinez, Andrea Mariana</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Holguin, Carlos</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Delgado, Ricardo Alfonso</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -2560,55 +4711,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275A0BA7-C958-43AA-AA0E-14953463025A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b4c971ed-d55e-45d5-823f-e5f0a4d5378a">
-      <UserInfo>
-        <DisplayName>Delgado Trevizo, Julio Alberto</DisplayName>
-        <AccountId>45</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rodriguez, Cesar</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rojas, Luis Emmanuel</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Martinez, Andrea Mariana</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Holguin, Carlos</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Delgado, Ricardo Alfonso</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AACDA88E-34EF-4E8F-9857-DDA03B498E1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82626346-9D5F-4E1D-99DC-613A4D63C800}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2625,29 +4753,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AACDA88E-34EF-4E8F-9857-DDA03B498E1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275A0BA7-C958-43AA-AA0E-14953463025A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b4c971ed-d55e-45d5-823f-e5f0a4d5378a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>